--- a/Data/Data_SOLMAT.xlsx
+++ b/Data/Data_SOLMAT.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5293104_ad_unsw_edu_au/Documents/Jupy&amp;PC/Helios/Bayesian_PV/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{043440B5-74CA-41A0-82FE-87FFF3AAB333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0636C8B-9971-CF44-A1F3-75D354E4F28E}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{043440B5-74CA-41A0-82FE-87FFF3AAB333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1CEE9C9-F505-A34B-8CDD-17F7771BD561}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="4860" windowWidth="29040" windowHeight="15840" xr2:uid="{85F86A31-096E-46CE-B77E-AA7D129629A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{85F86A31-096E-46CE-B77E-AA7D129629A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalized_table" sheetId="2" r:id="rId1"/>
     <sheet name="cycle_table" sheetId="3" r:id="rId2"/>
+    <sheet name="Trial" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="Jo">[1]Calc!$AB$6</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Temp</t>
     <phoneticPr fontId="1"/>
@@ -108,12 +109,6 @@
   </si>
   <si>
     <t>Opt.2</t>
-  </si>
-  <si>
-    <t>dependent variables</t>
-  </si>
-  <si>
-    <t>Independent variable</t>
   </si>
 </sst>
 </file>
@@ -195,14 +190,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3826CE16-864C-4E37-98FF-2D8729F604C3}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H2" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -570,505 +565,550 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
+      <c r="A2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4">
+        <v>13.267012271878247</v>
+      </c>
+      <c r="J2" s="4">
+        <v>13.291169365031388</v>
+      </c>
+      <c r="K2" s="4">
+        <v>13.097730015788807</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="B3" s="4">
-        <v>0.18181818181818182</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D3" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E3" s="4">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="4">
-        <v>13.267012271878247</v>
+        <v>12.380161647939575</v>
       </c>
       <c r="J3" s="4">
-        <v>13.291169365031388</v>
+        <v>12.579620556117561</v>
       </c>
       <c r="K3" s="4">
-        <v>13.097730015788807</v>
+        <v>12.796080045330815</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>9.0909090909090912E-2</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="C4" s="4">
-        <v>0.22222222222222221</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>0.1111111111111111</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F4" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="4">
-        <v>12.380161647939575</v>
+        <v>12.687070145999757</v>
       </c>
       <c r="J4" s="4">
-        <v>12.579620556117561</v>
+        <v>12.550012418398406</v>
       </c>
       <c r="K4" s="4">
-        <v>12.796080045330815</v>
+        <v>12.41489666345802</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="4">
-        <v>0.63636363636363635</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D5" s="4">
-        <v>0.88888888888888884</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E5" s="4">
-        <v>0.2857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F5" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="4">
-        <v>12.687070145999757</v>
+        <v>12.99989930059075</v>
       </c>
       <c r="J5" s="4">
-        <v>12.550012418398406</v>
+        <v>13.02545506352055</v>
       </c>
       <c r="K5" s="4">
-        <v>12.41489666345802</v>
+        <v>12.675656997387776</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B6" s="4">
-        <v>0.45454545454545453</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="C6" s="4">
-        <v>0.55555555555555558</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D6" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E6" s="4">
-        <v>0.8571428571428571</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G6" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="4">
-        <v>12.99989930059075</v>
+        <v>12.877512707122181</v>
       </c>
       <c r="J6" s="4">
-        <v>13.02545506352055</v>
+        <v>13.152559272038591</v>
       </c>
       <c r="K6" s="4">
-        <v>12.675656997387776</v>
+        <v>13.290838306773587</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B7" s="4">
-        <v>0.36363636363636365</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="C7" s="4">
-        <v>0.88888888888888884</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D7" s="4">
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>0.42857142857142855</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F7" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G7" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="4">
-        <v>12.877512707122181</v>
+        <v>12.912010929748595</v>
       </c>
       <c r="J7" s="4">
-        <v>13.152559272038591</v>
+        <v>12.961731079978332</v>
       </c>
       <c r="K7" s="4">
-        <v>13.290838306773587</v>
+        <v>13.252564594879379</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="B8" s="4">
         <v>0.27272727272727271</v>
       </c>
       <c r="C8" s="4">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D8" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
       <c r="E8" s="4">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F8" s="4">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G8" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H8" s="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="4">
-        <v>12.912010929748595</v>
+        <v>13.139024889580085</v>
       </c>
       <c r="J8" s="4">
-        <v>12.961731079978332</v>
+        <v>12.852233146014056</v>
       </c>
       <c r="K8" s="4">
-        <v>13.252564594879379</v>
+        <v>13.06267547810554</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="4">
-        <v>0.27272727272727271</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4">
-        <v>0.77777777777777779</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D9" s="4">
-        <v>0.44444444444444442</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E9" s="4">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G9" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="4">
-        <v>13.139024889580085</v>
+        <v>12.671878506909993</v>
       </c>
       <c r="J9" s="4">
-        <v>12.852233146014056</v>
+        <v>12.540849550445612</v>
       </c>
       <c r="K9" s="4">
-        <v>13.06267547810554</v>
+        <v>13.076600513568943</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4">
+        <v>11.893872765917578</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12.814372766025697</v>
+      </c>
+      <c r="K10" s="4">
+        <v>12.850246345261953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.16666666666666666</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="4">
-        <v>12.671878506909993</v>
-      </c>
-      <c r="J10" s="4">
-        <v>12.540849550445612</v>
-      </c>
-      <c r="K10" s="4">
-        <v>13.076600513568943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="4">
-        <v>11.893872765917578</v>
+        <v>12.962852664182295</v>
       </c>
       <c r="J11" s="4">
-        <v>12.814372766025697</v>
+        <v>13.02765378640283</v>
       </c>
       <c r="K11" s="4">
-        <v>12.850246345261953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12.857221009916584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B12" s="4">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="C12" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E12" s="4">
         <v>0.42857142857142855</v>
       </c>
       <c r="F12" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4">
+        <v>12.139231929589846</v>
+      </c>
+      <c r="J12" s="4">
+        <v>13.085694145646764</v>
+      </c>
+      <c r="K12" s="4">
+        <v>13.187104707961188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="C13" s="4">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="4">
-        <v>12.962852664182295</v>
-      </c>
-      <c r="J12" s="4">
-        <v>13.02765378640283</v>
-      </c>
-      <c r="K12" s="4">
-        <v>12.857221009916584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
+      <c r="D13" s="4">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4">
+        <v>12.986397792278449</v>
+      </c>
+      <c r="J13" s="4">
+        <v>13.586596212972337</v>
+      </c>
+      <c r="K13" s="4">
+        <v>13.087530669149128</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B14" s="4">
-        <v>9.0909090909090912E-2</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="C14" s="4">
         <v>0.22222222222222221</v>
       </c>
       <c r="D14" s="4">
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
-        <v>0.42857142857142855</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F14" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G14" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I14" s="4">
-        <v>12.139231929589846</v>
+        <v>11.926133645264111</v>
       </c>
       <c r="J14" s="4">
-        <v>13.085694145646764</v>
+        <v>12.674048963514355</v>
       </c>
       <c r="K14" s="4">
-        <v>13.187104707961188</v>
+        <v>12.840661993803343</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="B15" s="4">
-        <v>0.27272727272727271</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="C15" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D15" s="4">
         <v>0.77777777777777779</v>
       </c>
       <c r="E15" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F15" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G15" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>21</v>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="I15" s="4">
-        <v>12.986397792278449</v>
+        <v>12.941049281748798</v>
       </c>
       <c r="J15" s="4">
-        <v>13.586596212972337</v>
+        <v>13.53558093005269</v>
       </c>
       <c r="K15" s="4">
-        <v>13.087530669149128</v>
+        <v>13.579853228575216</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="B16" s="4">
-        <v>0.90909090909090906</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="C16" s="4">
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E16" s="4">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F16" s="4">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>12</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="I16" s="4">
-        <v>11.926133645264111</v>
+        <v>12.49124264579366</v>
       </c>
       <c r="J16" s="4">
-        <v>12.674048963514355</v>
+        <v>13.168833517069009</v>
       </c>
       <c r="K16" s="4">
-        <v>12.840661993803343</v>
+        <v>13.295454715384086</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="B17" s="4">
-        <v>9.0909090909090912E-2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="4">
         <v>0.33333333333333331</v>
@@ -1077,25 +1117,25 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="E17" s="4">
-        <v>0.42857142857142855</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F17" s="4">
         <v>0.33333333333333331</v>
       </c>
       <c r="G17" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>13</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I17" s="4">
-        <v>12.941049281748798</v>
+        <v>11.766806883763538</v>
       </c>
       <c r="J17" s="4">
-        <v>13.53558093005269</v>
+        <v>12.694639531007219</v>
       </c>
       <c r="K17" s="4">
-        <v>13.579853228575216</v>
+        <v>12.883726422226415</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1103,69 +1143,69 @@
         <v>0.6</v>
       </c>
       <c r="B18" s="4">
-        <v>0.27272727272727271</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D18" s="4">
-        <v>0.77777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E18" s="4">
-        <v>0.5714285714285714</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I18" s="4">
-        <v>12.49124264579366</v>
+        <v>12.86041159532299</v>
       </c>
       <c r="J18" s="4">
-        <v>13.168833517069009</v>
+        <v>12.928899397918368</v>
       </c>
       <c r="K18" s="4">
-        <v>13.295454715384086</v>
+        <v>12.691023837783213</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="B19" s="4">
-        <v>0</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="C19" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="D19" s="4">
-        <v>0.77777777777777779</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E19" s="4">
-        <v>0.2857142857142857</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F19" s="4">
         <v>0.33333333333333331</v>
       </c>
       <c r="G19" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>15</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="4">
-        <v>11.766806883763538</v>
+        <v>12.83923417504251</v>
       </c>
       <c r="J19" s="4">
-        <v>12.694639531007219</v>
+        <v>13.421314810293763</v>
       </c>
       <c r="K19" s="4">
-        <v>12.883726422226415</v>
+        <v>13.436392170763336</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1173,69 +1213,69 @@
         <v>0.6</v>
       </c>
       <c r="B20" s="4">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="4">
+        <v>13.179813950881108</v>
+      </c>
+      <c r="J20" s="4">
+        <v>13.272109311672079</v>
+      </c>
+      <c r="K20" s="4">
+        <v>13.572679305804909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="4">
-        <v>12.86041159532299</v>
-      </c>
-      <c r="J20" s="4">
-        <v>12.928899397918368</v>
-      </c>
-      <c r="K20" s="4">
-        <v>12.691023837783213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>0.6</v>
-      </c>
       <c r="B21" s="4">
-        <v>0.36363636363636365</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C21" s="4">
-        <v>0.27777777777777779</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="D21" s="4">
-        <v>0.55555555555555558</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E21" s="4">
-        <v>0.14285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F21" s="4">
         <v>0.33333333333333331</v>
       </c>
       <c r="G21" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>17</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="I21" s="4">
-        <v>12.83923417504251</v>
+        <v>12.891025660967914</v>
       </c>
       <c r="J21" s="4">
-        <v>13.421314810293763</v>
+        <v>12.912703732622207</v>
       </c>
       <c r="K21" s="4">
-        <v>13.436392170763336</v>
+        <v>12.862913298564928</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1243,111 +1283,39 @@
         <v>0.6</v>
       </c>
       <c r="B22" s="4">
-        <v>0.54545454545454541</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C22" s="4">
-        <v>5.5555555555555552E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D22" s="4">
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E22" s="4">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F22" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G22" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="4">
-        <v>13.179813950881108</v>
-      </c>
-      <c r="J22" s="4">
-        <v>13.272109311672079</v>
-      </c>
-      <c r="K22" s="4">
-        <v>13.572679305804909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="4">
-        <v>12.891025660967914</v>
-      </c>
-      <c r="J23" s="4">
-        <v>12.912703732622207</v>
-      </c>
-      <c r="K23" s="4">
-        <v>12.862913298564928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I22" s="5">
         <v>13.16980030128785</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J22" s="5">
         <v>13.633816871624791</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K22" s="5">
         <v>13.630054393617183</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="1">
+    <mergeCell ref="H2:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1360,7 +1328,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:J11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1720,4 +1688,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9368C765-999B-7945-AA4F-1E2F3B370B0C}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>12.99989930059075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>12.139231929589846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>12.877512707122181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12.380161647939575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12.962852664182295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>12.687070145999757</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>